--- a/biology/Botanique/Pyrole_mineure/Pyrole_mineure.xlsx
+++ b/biology/Botanique/Pyrole_mineure/Pyrole_mineure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pyrola minor, la petite pyrole (ou pirole), est une espèce de plante à fleurs appartenant au genre Pyrola, qui fait partie de la famille des Ericaceae. Elle a été décrite par Carl von Linné dans Species plantarum en 1753.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante vivace glabre mesure 20 cm ou plus, avec des feuilles en rosette amplement elliptiques à ovales qui demeurent vertes en hiver avec des pétioles plus courts que les limbes.
 Ses fleurs sont blanches  ou d'un blanc rosâtre, et globuleuses. Elles mesurent entre 5 et 7 cm et se présentent en une inflorescence spiciforme terminale. La tige est courte et bien dressée incluant les pétales. Elle fleurit en juin-juillet.
@@ -543,7 +557,9 @@
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pyrola minor croît dans des sols humides, dans les sous-bois de feuillus, les forêts de conifères et les landes à bouleaux à proximité de fougères.
 On la rencontre dans les plaines circumboréales, jusque dans les montagnes.
@@ -575,7 +591,9 @@
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, l'espèce est protégée en Basse-Normandie, dans le Centre, en Limousin, dans le Nord-Pas-de-Calais (liste rouge) et en Pays de la Loire.
 </t>
